--- a/Phase 2 Workflow/WE_treatment_dummy.xlsx
+++ b/Phase 2 Workflow/WE_treatment_dummy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://humberital-my.sharepoint.com/personal/n01609495_humber_ca/Documents/Desktop/LLM_Resume_EDA_and_Parsing/Phase 2 Workflow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://humberital-my.sharepoint.com/personal/n01780947_humber_ca/Documents/Documents/Repos/resume_parsing_audit_study/Phase 2 Workflow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC1048097958506E5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6C0653C-61DA-4DC4-AF11-30D9647C8643}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC1048097958506E5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55910EB5-2E8B-4BF3-A487-AAB0299758A6}"/>
   <bookViews>
-    <workbookView xWindow="51720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="15900" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,10 +205,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,15 +473,16 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -543,7 +540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -572,7 +569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -601,7 +598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -630,7 +627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
